--- a/Sample Class Record/Software Engineering.xlsx
+++ b/Sample Class Record/Software Engineering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29024"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\permi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\offline-attendance-system\Sample Class Record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872DB5D6-8B70-475A-A19A-472983C4C491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAD7C4E-25FA-471E-BBFF-B10A269F5091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software Engineering" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Professor Name</t>
   </si>
@@ -47,48 +47,6 @@
   </si>
   <si>
     <t>Course</t>
-  </si>
-  <si>
-    <t>2025001</t>
-  </si>
-  <si>
-    <t>Alice Ramos</t>
-  </si>
-  <si>
-    <t>3rd Year</t>
-  </si>
-  <si>
-    <t>BS Computer Science</t>
-  </si>
-  <si>
-    <t>2025002</t>
-  </si>
-  <si>
-    <t>Ben Cruz</t>
-  </si>
-  <si>
-    <t>2025003</t>
-  </si>
-  <si>
-    <t>Carla Dela Torre</t>
-  </si>
-  <si>
-    <t>29292-21</t>
-  </si>
-  <si>
-    <t>ewan ko sino</t>
-  </si>
-  <si>
-    <t>dwadwa</t>
-  </si>
-  <si>
-    <t>dwadwadwadawdw</t>
-  </si>
-  <si>
-    <t>20-0207-502</t>
-  </si>
-  <si>
-    <t>mark denzel</t>
   </si>
   <si>
     <t>Venue</t>
@@ -437,22 +395,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" customWidth="1"/>
-    <col min="5" max="5" width="39.453125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,11 +418,11 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -475,7 +433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -487,104 +445,6 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>12112</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>21412</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
